--- a/data/raw/RiskClassification_Data_Endpoints_V2_Shared.xlsx
+++ b/data/raw/RiskClassification_Data_Endpoints_V2_Shared.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorgft2875721-my.sharepoint.com/personal/monica_teejlab_com/Documents/TeejLab/Partners and Projects/UBC/MDS/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{C955FDF2-95DD-4CA4-98D2-C04E79ED5855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D45E5C04-DE91-499D-B00A-8ADCF3F3FC4A}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="8_{C955FDF2-95DD-4CA4-98D2-C04E79ED5855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3CB1AE3-8F27-45EB-993D-925008F07F0D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legal" sheetId="2" r:id="rId1"/>
     <sheet name="Core_Endpoint" sheetId="1" r:id="rId2"/>
+    <sheet name="RiskRules" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Core_Endpoint!$A$1:$S$113</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="638">
   <si>
     <t>api_endpoint_id</t>
   </si>
@@ -4256,6 +4257,99 @@
   <si>
     <t>security_test_result (FALSE=Passed; TRUE=Failed)</t>
   </si>
+  <si>
+    <t>api_vendor</t>
+  </si>
+  <si>
+    <t>security_test_result</t>
+  </si>
+  <si>
+    <t>PII</t>
+  </si>
+  <si>
+    <t>FII</t>
+  </si>
+  <si>
+    <t>Risk_Label</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Amaricas</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No Test Performed/Available</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Some Authentication</t>
+  </si>
+  <si>
+    <t>Academia</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>No Authentication</t>
+  </si>
+  <si>
+    <t>Injections</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Anywhere</t>
+  </si>
+  <si>
+    <t>Anyone</t>
+  </si>
+  <si>
+    <t>Imminent</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>XML External Enteties</t>
+  </si>
+  <si>
+    <t>All Tests Performed/Available</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>West Europe</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
 </sst>
 </file>
 
@@ -4758,7 +4852,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4775,6 +4869,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -5167,9 +5271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11086,4 +11190,2262 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE97770F-7185-4EFF-9D91-D218E7D40617}">
+  <dimension ref="A1:I76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="7" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{7DFDDFE7-30F8-431B-90A3-80FA091A10A9}">
+      <formula1>"Enterprise, Academia, Government, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{51E7456F-7723-468B-8FFF-A585F3EC51E8}">
+      <formula1>"JWT, Path, Query, Header, Oauth, BasicAuth, Some Authentication, No Authentication"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{0CC72B8F-1139-4B16-A893-ACF1DDA33603}">
+      <formula1>"Injections, Buffer Overflow, Broken Authentication, XML External Enteties, Cross-Site Scripting, No Test Performed/Available, All Tests Performed/Available"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{A3697B03-5117-45E4-86DD-369C35FA6083}">
+      <formula1>"Pass, Fail, N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{CF21965C-09A9-445E-85B3-1E17C7CA3290}">
+      <formula1>"West Europe, Amaricas, Russia, China, Others, Anywhere"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{4B73B722-B101-4FF6-9546-9309AC5EDC11}">
+      <formula1>"Enterprise, Private, Unknown, Anyone"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{11BEB0FF-DD85-4354-9FA8-FA2471B62245}">
+      <formula1>"Imminent, High, Medium, Low, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:H1048576" xr:uid="{6FCAD4A0-EAB1-4101-B88A-F128854B7717}">
+      <formula1>"Yes, No, N/A"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>